--- a/spec/support/coDuplicateDates.xlsx
+++ b/spec/support/coDuplicateDates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyshields/git-repos/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED3A49-9515-F94F-A51C-1A1EB04F97E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4576B09A-6BA6-A045-A568-80828AB94A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21760" yWindow="460" windowWidth="16640" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="129">
   <si>
     <t>Example</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>8:30</t>
+  </si>
+  <si>
+    <t>White River Junction, VT</t>
+  </si>
+  <si>
+    <t>RO05</t>
   </si>
 </sst>
 </file>
@@ -1205,43 +1211,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,6 +1243,36 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2457,9 +2463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IT50"/>
+  <dimension ref="A1:IU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2468,29 +2476,30 @@
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="254" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="43" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="255" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58"/>
+    <row r="1" spans="1:58" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="3"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -2533,9 +2542,10 @@
       <c r="BB1" s="3"/>
       <c r="BC1" s="3"/>
       <c r="BD1" s="3"/>
-      <c r="BE1" s="4"/>
-    </row>
-    <row r="2" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="4"/>
+    </row>
+    <row r="2" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2552,163 +2562,166 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AO2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AT2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AW2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AX2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="BA2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BB2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BC2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BD2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BE2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BF2" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>59</v>
       </c>
@@ -2725,163 +2738,166 @@
         <v>63</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AA3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AB3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AC3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AD3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AE3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AF3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AG3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AH3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AI3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AK3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AL3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AM3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AN3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AO3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AQ3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AR3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AS3" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AT3" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AU3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AV3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AW3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AX3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AY3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AY3" s="11" t="s">
+      <c r="AZ3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AZ3" s="11" t="s">
+      <c r="BA3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BB3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="BC3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="BC3" s="11" t="s">
+      <c r="BD3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="BD3" s="11" t="s">
+      <c r="BE3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BE3" s="11" t="s">
+      <c r="BF3" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>116</v>
       </c>
@@ -3053,8 +3069,11 @@
       <c r="BE4" s="16">
         <v>43114</v>
       </c>
-    </row>
-    <row r="5" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF4" s="16">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="18">
         <v>43497</v>
@@ -3224,8 +3243,11 @@
       <c r="BE5" s="20">
         <v>43115</v>
       </c>
-    </row>
-    <row r="6" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF5" s="20">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="21">
         <v>43540</v>
@@ -3395,8 +3417,11 @@
       <c r="BE6" s="20">
         <v>43225</v>
       </c>
-    </row>
-    <row r="7" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF6" s="20">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="22">
         <v>43576</v>
@@ -3566,8 +3591,11 @@
       <c r="BE7" s="20">
         <v>43191</v>
       </c>
-    </row>
-    <row r="8" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF7" s="20">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="23">
         <v>43604</v>
@@ -3627,8 +3655,9 @@
       <c r="BC8" s="26"/>
       <c r="BD8" s="26"/>
       <c r="BE8" s="26"/>
-    </row>
-    <row r="9" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF8" s="26"/>
+    </row>
+    <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
@@ -3686,8 +3715,9 @@
       <c r="BC9" s="26"/>
       <c r="BD9" s="26"/>
       <c r="BE9" s="26"/>
-    </row>
-    <row r="10" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF9" s="26"/>
+    </row>
+    <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
@@ -3745,8 +3775,9 @@
       <c r="BC10" s="25"/>
       <c r="BD10" s="25"/>
       <c r="BE10" s="25"/>
-    </row>
-    <row r="11" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF10" s="25"/>
+    </row>
+    <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="31"/>
       <c r="C11" s="28"/>
@@ -3803,9 +3834,10 @@
       <c r="BB11" s="28"/>
       <c r="BC11" s="28"/>
       <c r="BD11" s="28"/>
-      <c r="BE11" s="32"/>
-    </row>
-    <row r="12" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="32"/>
+    </row>
+    <row r="12" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
@@ -3863,8 +3895,9 @@
       <c r="BC12" s="30"/>
       <c r="BD12" s="30"/>
       <c r="BE12" s="30"/>
-    </row>
-    <row r="13" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF12" s="30"/>
+    </row>
+    <row r="13" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="31"/>
       <c r="C13" s="28"/>
@@ -3921,9 +3954,10 @@
       <c r="BB13" s="28"/>
       <c r="BC13" s="28"/>
       <c r="BD13" s="28"/>
-      <c r="BE13" s="32"/>
-    </row>
-    <row r="14" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="32"/>
+    </row>
+    <row r="14" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
@@ -3981,8 +4015,9 @@
       <c r="BC14" s="30"/>
       <c r="BD14" s="30"/>
       <c r="BE14" s="30"/>
-    </row>
-    <row r="15" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF14" s="30"/>
+    </row>
+    <row r="15" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="31"/>
       <c r="C15" s="28"/>
@@ -4039,9 +4074,10 @@
       <c r="BB15" s="28"/>
       <c r="BC15" s="28"/>
       <c r="BD15" s="28"/>
-      <c r="BE15" s="32"/>
-    </row>
-    <row r="16" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="32"/>
+    </row>
+    <row r="16" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
@@ -4099,8 +4135,9 @@
       <c r="BC16" s="30"/>
       <c r="BD16" s="30"/>
       <c r="BE16" s="30"/>
-    </row>
-    <row r="17" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF16" s="30"/>
+    </row>
+    <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="31"/>
       <c r="C17" s="28"/>
@@ -4157,9 +4194,10 @@
       <c r="BB17" s="28"/>
       <c r="BC17" s="28"/>
       <c r="BD17" s="28"/>
-      <c r="BE17" s="32"/>
-    </row>
-    <row r="18" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE17" s="28"/>
+      <c r="BF17" s="32"/>
+    </row>
+    <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
@@ -4217,8 +4255,9 @@
       <c r="BC18" s="30"/>
       <c r="BD18" s="30"/>
       <c r="BE18" s="30"/>
-    </row>
-    <row r="19" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF18" s="30"/>
+    </row>
+    <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="31"/>
       <c r="C19" s="28"/>
@@ -4275,9 +4314,10 @@
       <c r="BB19" s="28"/>
       <c r="BC19" s="28"/>
       <c r="BD19" s="28"/>
-      <c r="BE19" s="32"/>
-    </row>
-    <row r="20" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE19" s="28"/>
+      <c r="BF19" s="32"/>
+    </row>
+    <row r="20" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
@@ -4335,8 +4375,9 @@
       <c r="BC20" s="30"/>
       <c r="BD20" s="30"/>
       <c r="BE20" s="30"/>
-    </row>
-    <row r="21" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF20" s="30"/>
+    </row>
+    <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="31"/>
       <c r="C21" s="28"/>
@@ -4393,9 +4434,10 @@
       <c r="BB21" s="28"/>
       <c r="BC21" s="28"/>
       <c r="BD21" s="28"/>
-      <c r="BE21" s="32"/>
-    </row>
-    <row r="22" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE21" s="28"/>
+      <c r="BF21" s="32"/>
+    </row>
+    <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="29"/>
       <c r="C22" s="30"/>
@@ -4453,8 +4495,9 @@
       <c r="BC22" s="30"/>
       <c r="BD22" s="30"/>
       <c r="BE22" s="30"/>
-    </row>
-    <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF22" s="30"/>
+    </row>
+    <row r="23" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="31"/>
       <c r="C23" s="28"/>
@@ -4511,9 +4554,10 @@
       <c r="BB23" s="28"/>
       <c r="BC23" s="28"/>
       <c r="BD23" s="28"/>
-      <c r="BE23" s="32"/>
-    </row>
-    <row r="24" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE23" s="28"/>
+      <c r="BF23" s="32"/>
+    </row>
+    <row r="24" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
@@ -4571,8 +4615,9 @@
       <c r="BC24" s="30"/>
       <c r="BD24" s="30"/>
       <c r="BE24" s="30"/>
-    </row>
-    <row r="25" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF24" s="30"/>
+    </row>
+    <row r="25" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="31"/>
       <c r="C25" s="28"/>
@@ -4629,9 +4674,10 @@
       <c r="BB25" s="28"/>
       <c r="BC25" s="28"/>
       <c r="BD25" s="28"/>
-      <c r="BE25" s="32"/>
-    </row>
-    <row r="26" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE25" s="28"/>
+      <c r="BF25" s="32"/>
+    </row>
+    <row r="26" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -4689,8 +4735,9 @@
       <c r="BC26" s="30"/>
       <c r="BD26" s="30"/>
       <c r="BE26" s="30"/>
-    </row>
-    <row r="27" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF26" s="30"/>
+    </row>
+    <row r="27" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="31"/>
       <c r="C27" s="28"/>
@@ -4747,9 +4794,10 @@
       <c r="BB27" s="28"/>
       <c r="BC27" s="28"/>
       <c r="BD27" s="28"/>
-      <c r="BE27" s="32"/>
-    </row>
-    <row r="28" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE27" s="28"/>
+      <c r="BF27" s="32"/>
+    </row>
+    <row r="28" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -4807,8 +4855,9 @@
       <c r="BC28" s="30"/>
       <c r="BD28" s="30"/>
       <c r="BE28" s="30"/>
-    </row>
-    <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF28" s="30"/>
+    </row>
+    <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="31"/>
       <c r="C29" s="28"/>
@@ -4865,9 +4914,10 @@
       <c r="BB29" s="28"/>
       <c r="BC29" s="28"/>
       <c r="BD29" s="28"/>
-      <c r="BE29" s="32"/>
-    </row>
-    <row r="30" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE29" s="28"/>
+      <c r="BF29" s="32"/>
+    </row>
+    <row r="30" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
@@ -4925,8 +4975,9 @@
       <c r="BC30" s="30"/>
       <c r="BD30" s="30"/>
       <c r="BE30" s="30"/>
-    </row>
-    <row r="31" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF30" s="30"/>
+    </row>
+    <row r="31" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="31"/>
       <c r="C31" s="28"/>
@@ -4983,9 +5034,10 @@
       <c r="BB31" s="28"/>
       <c r="BC31" s="28"/>
       <c r="BD31" s="28"/>
-      <c r="BE31" s="32"/>
-    </row>
-    <row r="32" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE31" s="28"/>
+      <c r="BF31" s="32"/>
+    </row>
+    <row r="32" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
@@ -5043,8 +5095,9 @@
       <c r="BC32" s="30"/>
       <c r="BD32" s="30"/>
       <c r="BE32" s="30"/>
-    </row>
-    <row r="33" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF32" s="30"/>
+    </row>
+    <row r="33" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="31"/>
       <c r="C33" s="28"/>
@@ -5101,9 +5154,10 @@
       <c r="BB33" s="28"/>
       <c r="BC33" s="28"/>
       <c r="BD33" s="28"/>
-      <c r="BE33" s="32"/>
-    </row>
-    <row r="34" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE33" s="28"/>
+      <c r="BF33" s="32"/>
+    </row>
+    <row r="34" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
@@ -5161,8 +5215,9 @@
       <c r="BC34" s="30"/>
       <c r="BD34" s="30"/>
       <c r="BE34" s="30"/>
-    </row>
-    <row r="35" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF34" s="30"/>
+    </row>
+    <row r="35" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="31"/>
       <c r="C35" s="28"/>
@@ -5219,9 +5274,10 @@
       <c r="BB35" s="28"/>
       <c r="BC35" s="28"/>
       <c r="BD35" s="28"/>
-      <c r="BE35" s="32"/>
-    </row>
-    <row r="36" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE35" s="28"/>
+      <c r="BF35" s="32"/>
+    </row>
+    <row r="36" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
@@ -5279,8 +5335,9 @@
       <c r="BC36" s="30"/>
       <c r="BD36" s="30"/>
       <c r="BE36" s="30"/>
-    </row>
-    <row r="37" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF36" s="30"/>
+    </row>
+    <row r="37" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="31"/>
       <c r="C37" s="28"/>
@@ -5337,9 +5394,10 @@
       <c r="BB37" s="28"/>
       <c r="BC37" s="28"/>
       <c r="BD37" s="28"/>
-      <c r="BE37" s="32"/>
-    </row>
-    <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE37" s="28"/>
+      <c r="BF37" s="32"/>
+    </row>
+    <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
@@ -5397,8 +5455,9 @@
       <c r="BC38" s="30"/>
       <c r="BD38" s="30"/>
       <c r="BE38" s="30"/>
-    </row>
-    <row r="39" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF38" s="30"/>
+    </row>
+    <row r="39" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="31"/>
       <c r="C39" s="28"/>
@@ -5455,9 +5514,10 @@
       <c r="BB39" s="28"/>
       <c r="BC39" s="28"/>
       <c r="BD39" s="28"/>
-      <c r="BE39" s="32"/>
-    </row>
-    <row r="40" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE39" s="28"/>
+      <c r="BF39" s="32"/>
+    </row>
+    <row r="40" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
@@ -5515,8 +5575,9 @@
       <c r="BC40" s="30"/>
       <c r="BD40" s="30"/>
       <c r="BE40" s="30"/>
-    </row>
-    <row r="41" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF40" s="30"/>
+    </row>
+    <row r="41" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="31"/>
       <c r="C41" s="28"/>
@@ -5573,9 +5634,10 @@
       <c r="BB41" s="28"/>
       <c r="BC41" s="28"/>
       <c r="BD41" s="28"/>
-      <c r="BE41" s="32"/>
-    </row>
-    <row r="42" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE41" s="28"/>
+      <c r="BF41" s="32"/>
+    </row>
+    <row r="42" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
@@ -5633,8 +5695,9 @@
       <c r="BC42" s="30"/>
       <c r="BD42" s="30"/>
       <c r="BE42" s="30"/>
-    </row>
-    <row r="43" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF42" s="30"/>
+    </row>
+    <row r="43" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="31"/>
       <c r="C43" s="28"/>
@@ -5691,9 +5754,10 @@
       <c r="BB43" s="28"/>
       <c r="BC43" s="28"/>
       <c r="BD43" s="28"/>
-      <c r="BE43" s="32"/>
-    </row>
-    <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE43" s="28"/>
+      <c r="BF43" s="32"/>
+    </row>
+    <row r="44" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="29"/>
       <c r="C44" s="30"/>
@@ -5751,8 +5815,9 @@
       <c r="BC44" s="30"/>
       <c r="BD44" s="30"/>
       <c r="BE44" s="30"/>
-    </row>
-    <row r="45" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF44" s="30"/>
+    </row>
+    <row r="45" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="31"/>
       <c r="C45" s="28"/>
@@ -5809,9 +5874,10 @@
       <c r="BB45" s="28"/>
       <c r="BC45" s="28"/>
       <c r="BD45" s="28"/>
-      <c r="BE45" s="32"/>
-    </row>
-    <row r="46" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE45" s="28"/>
+      <c r="BF45" s="32"/>
+    </row>
+    <row r="46" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30"/>
@@ -5869,8 +5935,9 @@
       <c r="BC46" s="30"/>
       <c r="BD46" s="30"/>
       <c r="BE46" s="30"/>
-    </row>
-    <row r="47" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF46" s="30"/>
+    </row>
+    <row r="47" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="31"/>
       <c r="C47" s="28"/>
@@ -5927,9 +5994,10 @@
       <c r="BB47" s="28"/>
       <c r="BC47" s="28"/>
       <c r="BD47" s="28"/>
-      <c r="BE47" s="32"/>
-    </row>
-    <row r="48" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE47" s="28"/>
+      <c r="BF47" s="32"/>
+    </row>
+    <row r="48" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
@@ -5987,8 +6055,9 @@
       <c r="BC48" s="30"/>
       <c r="BD48" s="30"/>
       <c r="BE48" s="30"/>
-    </row>
-    <row r="49" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF48" s="30"/>
+    </row>
+    <row r="49" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="31"/>
       <c r="C49" s="28"/>
@@ -6045,9 +6114,10 @@
       <c r="BB49" s="28"/>
       <c r="BC49" s="28"/>
       <c r="BD49" s="28"/>
-      <c r="BE49" s="32"/>
-    </row>
-    <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE49" s="28"/>
+      <c r="BF49" s="32"/>
+    </row>
+    <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
       <c r="C50" s="35"/>
@@ -6105,10 +6175,11 @@
       <c r="BC50" s="35"/>
       <c r="BD50" s="35"/>
       <c r="BE50" s="35"/>
+      <c r="BF50" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -6134,10 +6205,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="37"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -6233,10 +6304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV98"/>
+  <dimension ref="A1:IV99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6250,16 +6321,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
       <c r="K1" s="44"/>
@@ -6268,16 +6339,16 @@
       <c r="N1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -6286,26 +6357,26 @@
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="60" t="s">
         <v>125</v>
       </c>
       <c r="I3" s="26"/>
@@ -6316,28 +6387,28 @@
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="65">
         <v>10</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="66">
         <v>50</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="66">
         <v>8</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="66">
         <v>60</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="67" t="s">
         <v>126</v>
       </c>
       <c r="I4" s="26"/>
@@ -6416,13 +6487,13 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
       <c r="B8" s="46" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D8" s="48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="26"/>
@@ -6438,13 +6509,13 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
       <c r="B9" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="26"/>
@@ -6460,13 +6531,13 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="26"/>
@@ -6482,13 +6553,13 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="26"/>
@@ -6504,13 +6575,13 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
       <c r="B12" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="26"/>
@@ -6526,13 +6597,13 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
       <c r="B13" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="26"/>
@@ -6548,13 +6619,13 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
       <c r="B14" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="26"/>
@@ -6570,13 +6641,13 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
       <c r="B15" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="48">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="26"/>
@@ -6592,13 +6663,13 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="26"/>
@@ -6614,13 +6685,13 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="26"/>
@@ -6636,13 +6707,13 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="26"/>
@@ -6658,13 +6729,13 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="26"/>
@@ -6680,13 +6751,13 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="48">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="26"/>
@@ -6702,13 +6773,13 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="48">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="26"/>
@@ -6724,13 +6795,13 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="26"/>
@@ -6746,13 +6817,13 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="26"/>
@@ -6768,13 +6839,13 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
       <c r="B24" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="26"/>
@@ -6790,13 +6861,13 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="26"/>
@@ -6812,13 +6883,13 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
       <c r="B26" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="26"/>
@@ -6834,13 +6905,13 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
       <c r="B27" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="26"/>
@@ -6856,13 +6927,13 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
       <c r="B28" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="26"/>
@@ -6878,13 +6949,13 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
       <c r="B29" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="26"/>
@@ -6900,13 +6971,13 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51"/>
       <c r="B30" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="26"/>
@@ -6922,10 +6993,10 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="51"/>
       <c r="B31" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="48">
         <v>4</v>
@@ -6944,13 +7015,13 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="51"/>
       <c r="B32" s="46" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="26"/>
@@ -6966,13 +7037,13 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="51"/>
       <c r="B33" s="46" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="26"/>
@@ -6988,13 +7059,13 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="51"/>
       <c r="B34" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="26"/>
@@ -7010,13 +7081,13 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="51"/>
       <c r="B35" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="26"/>
@@ -7032,13 +7103,13 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
       <c r="B36" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="48">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="26"/>
@@ -7054,13 +7125,13 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
       <c r="B37" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="26"/>
@@ -7076,13 +7147,13 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="51"/>
       <c r="B38" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="26"/>
@@ -7098,13 +7169,13 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="51"/>
       <c r="B39" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="26"/>
@@ -7120,13 +7191,13 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="51"/>
       <c r="B40" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="26"/>
@@ -7142,13 +7213,13 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="51"/>
       <c r="B41" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="26"/>
@@ -7164,13 +7235,13 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="51"/>
       <c r="B42" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="26"/>
@@ -7186,13 +7257,13 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="51"/>
       <c r="B43" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="26"/>
@@ -7208,13 +7279,13 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="51"/>
       <c r="B44" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="26"/>
@@ -7230,13 +7301,13 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="51"/>
       <c r="B45" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="48">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="26"/>
@@ -7252,13 +7323,13 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
       <c r="B46" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="48">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="26"/>
@@ -7274,13 +7345,13 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="51"/>
       <c r="B47" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="26"/>
@@ -7296,13 +7367,13 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="51"/>
       <c r="B48" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="26"/>
@@ -7318,13 +7389,13 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="51"/>
       <c r="B49" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="48">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="26"/>
@@ -7340,13 +7411,13 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="51"/>
       <c r="B50" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="48">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="26"/>
@@ -7362,13 +7433,13 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="51"/>
       <c r="B51" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="26"/>
@@ -7384,13 +7455,13 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="51"/>
       <c r="B52" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="26"/>
@@ -7406,13 +7477,13 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="51"/>
       <c r="B53" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="26"/>
@@ -7428,13 +7499,13 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
       <c r="B54" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="26"/>
@@ -7450,13 +7521,13 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
       <c r="B55" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="26"/>
@@ -7472,13 +7543,13 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="51"/>
       <c r="B56" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="26"/>
@@ -7494,10 +7565,10 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="51"/>
       <c r="B57" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="48">
         <v>2</v>
@@ -7516,13 +7587,13 @@
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="51"/>
       <c r="B58" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="26"/>
@@ -7538,13 +7609,13 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="51"/>
       <c r="B59" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="26"/>
@@ -7559,9 +7630,15 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="51"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="48"/>
+      <c r="B60" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="48">
+        <v>1</v>
+      </c>
       <c r="E60" s="37"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
@@ -7575,7 +7652,7 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="51"/>
-      <c r="B61" s="37"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="26"/>
       <c r="D61" s="48"/>
       <c r="E61" s="37"/>
@@ -8166,7 +8243,7 @@
       <c r="N97" s="26"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="53"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="37"/>
       <c r="C98" s="26"/>
       <c r="D98" s="48"/>
@@ -8181,6 +8258,22 @@
       <c r="M98" s="26"/>
       <c r="N98" s="26"/>
     </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="53"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
